--- a/vectorDecomposition.xlsx
+++ b/vectorDecomposition.xlsx
@@ -1,30 +1,40 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24228"/>
+  <workbookPr filterPrivacy="1"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8A0667F1-30EB-4C87-853A-22202091305D}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648"/>
+    <workbookView xWindow="28680" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+        <xcalcf:feature name="microsoft.com:LET_WF"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
-<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="xr">
   <authors>
     <author>Автор</author>
   </authors>
   <commentList>
-    <comment ref="A2" authorId="0" shapeId="0">
+    <comment ref="A2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000001000000}">
       <text>
         <r>
           <rPr>
@@ -38,7 +48,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="B2" authorId="0" shapeId="0">
+    <comment ref="B2" authorId="0" shapeId="0" xr:uid="{00000000-0006-0000-0000-000002000000}">
       <text>
         <r>
           <rPr>
@@ -57,7 +67,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="13" uniqueCount="11">
   <si>
     <t>N</t>
   </si>
@@ -79,12 +89,24 @@
   <si>
     <t>NbyThLast = N%(Nth-1)</t>
   </si>
+  <si>
+    <t>NbyTh = N/Nth</t>
+  </si>
+  <si>
+    <t>NbyThLast = N-Nth*NbyTh</t>
+  </si>
+  <si>
+    <t>N%Nth</t>
+  </si>
+  <si>
+    <t>NbyThLast-NbyTh</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
-  <fonts count="2" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -99,13 +121,43 @@
       <name val="Tahoma"/>
       <charset val="1"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -120,11 +172,20 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -404,21 +465,26 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A2:G32"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A2:N101"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="L9" sqref="L9"/>
+    <sheetView tabSelected="1" topLeftCell="A37" workbookViewId="0">
+      <selection activeCell="A58" sqref="A58:XFD58"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="3" max="3" width="17.21875" customWidth="1"/>
-    <col min="4" max="4" width="25.109375" customWidth="1"/>
-    <col min="5" max="5" width="21.44140625" customWidth="1"/>
+    <col min="4" max="4" width="17.28515625" customWidth="1"/>
+    <col min="5" max="5" width="25.140625" customWidth="1"/>
+    <col min="6" max="6" width="21.42578125" customWidth="1"/>
+    <col min="8" max="8" width="9.140625" style="3"/>
+    <col min="10" max="10" width="14.5703125" customWidth="1"/>
+    <col min="11" max="11" width="24.28515625" customWidth="1"/>
+    <col min="13" max="13" width="9.140625" style="3"/>
+    <col min="14" max="14" width="9.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>0</v>
       </c>
@@ -426,22 +492,40 @@
         <v>1</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>4</v>
+        <v>9</v>
       </c>
       <c r="D2" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E2" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="E2" s="1" t="s">
+      <c r="F2" s="1" t="s">
         <v>6</v>
       </c>
-      <c r="F2" s="1" t="s">
-        <v>2</v>
-      </c>
       <c r="G2" s="1" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+        <v>2</v>
+      </c>
+      <c r="H2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="J2" t="s">
+        <v>7</v>
+      </c>
+      <c r="K2" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="L2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="M2" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="N2" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A3">
         <v>1</v>
       </c>
@@ -449,27 +533,51 @@
         <v>4</v>
       </c>
       <c r="C3">
+        <f>MOD(A3,B3)</f>
+        <v>1</v>
+      </c>
+      <c r="D3" s="5">
         <f>INT(A3/(B3-1))</f>
         <v>0</v>
       </c>
-      <c r="D3">
-        <f>A3-(B3-1)*C3</f>
-        <v>1</v>
-      </c>
       <c r="E3">
+        <f>A3-(B3-1)*D3</f>
+        <v>1</v>
+      </c>
+      <c r="F3">
         <f>MOD(A3,B3-1)</f>
         <v>1</v>
       </c>
-      <c r="F3">
-        <f>C3*(B3-1)+D3</f>
-        <v>1</v>
-      </c>
-      <c r="G3" t="e">
-        <f>D3/C3</f>
+      <c r="G3">
+        <f>D3*(B3-1)+E3</f>
+        <v>1</v>
+      </c>
+      <c r="H3" s="3" t="e">
+        <f>E3/D3</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J3" s="5">
+        <f>INT(A3/B3)</f>
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <f>A3-(B3-1)*J3</f>
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <f>(B3-1)*J3+K3</f>
+        <v>1</v>
+      </c>
+      <c r="M3" s="3" t="e">
+        <f>K3/J3</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N3">
+        <f>K3-J3</f>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A4">
         <f>A3+1</f>
         <v>2</v>
@@ -479,93 +587,165 @@
         <v>4</v>
       </c>
       <c r="C4">
-        <f t="shared" ref="C4:C32" si="0">INT(A4/(B4-1))</f>
-        <v>0</v>
-      </c>
-      <c r="D4">
-        <f t="shared" ref="D4:D32" si="1">A4-(B4-1)*C4</f>
-        <v>2</v>
+        <f t="shared" ref="C4:C37" si="0">MOD(A4,B4)</f>
+        <v>2</v>
+      </c>
+      <c r="D4" s="6">
+        <f t="shared" ref="D4:D37" si="1">INT(A4/(B4-1))</f>
+        <v>0</v>
       </c>
       <c r="E4">
-        <f t="shared" ref="E4:E32" si="2">MOD(A4,B4-1)</f>
+        <f t="shared" ref="E4:E37" si="2">A4-(B4-1)*D4</f>
         <v>2</v>
       </c>
       <c r="F4">
-        <f t="shared" ref="F4:F32" si="3">C4*(B4-1)+D4</f>
-        <v>2</v>
-      </c>
-      <c r="G4" t="e">
-        <f t="shared" ref="G4:G32" si="4">D4/C4</f>
+        <f t="shared" ref="F4:F37" si="3">MOD(A4,B4-1)</f>
+        <v>2</v>
+      </c>
+      <c r="G4">
+        <f t="shared" ref="G4:G37" si="4">D4*(B4-1)+E4</f>
+        <v>2</v>
+      </c>
+      <c r="H4" s="3" t="e">
+        <f t="shared" ref="H4:H37" si="5">E4/D4</f>
         <v>#DIV/0!</v>
       </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J4" s="5">
+        <f t="shared" ref="J4:J37" si="6">INT(A4/B4)</f>
+        <v>0</v>
+      </c>
+      <c r="K4">
+        <f t="shared" ref="K4:K37" si="7">A4-(B4-1)*J4</f>
+        <v>2</v>
+      </c>
+      <c r="L4">
+        <f t="shared" ref="L4:L37" si="8">(B4-1)*J4+K4</f>
+        <v>2</v>
+      </c>
+      <c r="M4" s="3" t="e">
+        <f t="shared" ref="M4:M37" si="9">K4/J4</f>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N4">
+        <f t="shared" ref="N4:N37" si="10">K4-J4</f>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A5">
-        <f t="shared" ref="A5:A32" si="5">A4+1</f>
+        <f t="shared" ref="A5:A68" si="11">A4+1</f>
         <v>3</v>
       </c>
       <c r="B5">
-        <f t="shared" ref="B5:B32" si="6">B4</f>
+        <f t="shared" ref="B5:B68" si="12">B4</f>
         <v>4</v>
       </c>
       <c r="C5">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="D5">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E5">
+        <v>1</v>
+      </c>
+      <c r="E5" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F5">
         <f t="shared" si="3"/>
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="G5">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6">
+        <v>3</v>
+      </c>
+      <c r="H5" s="3">
         <f t="shared" si="5"/>
-        <v>4</v>
-      </c>
-      <c r="B6">
+        <v>0</v>
+      </c>
+      <c r="J5" s="5">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C6">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L5">
+        <f t="shared" si="8"/>
+        <v>3</v>
+      </c>
+      <c r="M5" s="3" t="e">
+        <f t="shared" si="9"/>
+        <v>#DIV/0!</v>
+      </c>
+      <c r="N5">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="4">
+        <f t="shared" si="11"/>
+        <v>4</v>
+      </c>
+      <c r="B6" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C6" s="4">
         <f t="shared" si="0"/>
-        <v>1</v>
-      </c>
-      <c r="D6">
+        <v>0</v>
+      </c>
+      <c r="D6" s="4">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="E6">
+      <c r="E6" s="4">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="F6">
+      <c r="F6" s="4">
         <f t="shared" si="3"/>
-        <v>4</v>
-      </c>
-      <c r="G6">
+        <v>1</v>
+      </c>
+      <c r="G6" s="4">
         <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+        <v>4</v>
+      </c>
+      <c r="H6" s="4">
+        <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J6" s="4">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K6" s="4">
+        <f t="shared" si="7"/>
+        <v>1</v>
+      </c>
+      <c r="L6" s="4">
+        <f t="shared" si="8"/>
+        <v>4</v>
+      </c>
+      <c r="M6" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N6" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A7">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>5</v>
       </c>
       <c r="B7">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C7">
@@ -574,7 +754,7 @@
       </c>
       <c r="D7">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="E7">
         <f t="shared" si="2"/>
@@ -582,20 +762,44 @@
       </c>
       <c r="F7">
         <f t="shared" si="3"/>
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="G7">
         <f t="shared" si="4"/>
-        <v>2</v>
-      </c>
-    </row>
-    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+        <v>5</v>
+      </c>
+      <c r="H7" s="3">
+        <f t="shared" si="5"/>
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K7">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <f t="shared" si="8"/>
+        <v>5</v>
+      </c>
+      <c r="M7" s="7">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A8">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>6</v>
       </c>
       <c r="B8">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C8">
@@ -604,37 +808,61 @@
       </c>
       <c r="D8">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E8">
+        <v>2</v>
+      </c>
+      <c r="E8" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F8">
         <f t="shared" si="3"/>
-        <v>6</v>
+        <v>0</v>
       </c>
       <c r="G8">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+        <v>6</v>
+      </c>
+      <c r="H8" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K8">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <f t="shared" si="8"/>
+        <v>6</v>
+      </c>
+      <c r="M8" s="3">
+        <f t="shared" si="9"/>
+        <v>3</v>
+      </c>
+      <c r="N8">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A9">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>7</v>
       </c>
       <c r="B9">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C9">
         <f t="shared" si="0"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D9">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="E9">
         <f t="shared" si="2"/>
@@ -642,89 +870,161 @@
       </c>
       <c r="F9">
         <f t="shared" si="3"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="G9">
         <f t="shared" si="4"/>
+        <v>7</v>
+      </c>
+      <c r="H9" s="7">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A10">
+      <c r="J9">
+        <f t="shared" si="6"/>
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L9">
+        <f t="shared" si="8"/>
+        <v>7</v>
+      </c>
+      <c r="M9" s="3">
+        <f t="shared" si="9"/>
+        <v>4</v>
+      </c>
+      <c r="N9">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A10" s="4">
+        <f t="shared" si="11"/>
+        <v>8</v>
+      </c>
+      <c r="B10" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C10" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D10" s="4">
+        <f t="shared" si="1"/>
+        <v>2</v>
+      </c>
+      <c r="E10" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F10" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G10" s="4">
+        <f t="shared" si="4"/>
+        <v>8</v>
+      </c>
+      <c r="H10" s="4">
         <f t="shared" si="5"/>
+        <v>1</v>
+      </c>
+      <c r="J10" s="4">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K10" s="4">
+        <f t="shared" si="7"/>
+        <v>2</v>
+      </c>
+      <c r="L10" s="4">
+        <f t="shared" si="8"/>
         <v>8</v>
       </c>
-      <c r="B10">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C10">
-        <f t="shared" si="0"/>
-        <v>2</v>
-      </c>
-      <c r="D10">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E10">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F10">
-        <f t="shared" si="3"/>
-        <v>8</v>
-      </c>
-      <c r="G10">
-        <f t="shared" si="4"/>
-        <v>1</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M10" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N10" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A11">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>9</v>
       </c>
       <c r="B11">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C11">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="D11">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E11">
+        <v>3</v>
+      </c>
+      <c r="E11" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F11">
         <f t="shared" si="3"/>
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="G11">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+        <v>9</v>
+      </c>
+      <c r="H11" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K11">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L11">
+        <f t="shared" si="8"/>
+        <v>9</v>
+      </c>
+      <c r="M11" s="7">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="N11">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A12">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>10</v>
       </c>
       <c r="B12">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C12">
         <f t="shared" si="0"/>
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="D12">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="E12">
         <f t="shared" si="2"/>
@@ -732,20 +1032,44 @@
       </c>
       <c r="F12">
         <f t="shared" si="3"/>
-        <v>10</v>
+        <v>1</v>
       </c>
       <c r="G12">
         <f t="shared" si="4"/>
+        <v>10</v>
+      </c>
+      <c r="H12" s="7">
+        <f t="shared" si="5"/>
         <v>0.33333333333333331</v>
       </c>
-    </row>
-    <row r="13" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J12">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L12">
+        <f t="shared" si="8"/>
+        <v>10</v>
+      </c>
+      <c r="M12" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N12">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A13">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>11</v>
       </c>
       <c r="B13">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C13">
@@ -754,7 +1078,7 @@
       </c>
       <c r="D13">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E13">
         <f t="shared" si="2"/>
@@ -762,59 +1086,107 @@
       </c>
       <c r="F13">
         <f t="shared" si="3"/>
-        <v>11</v>
+        <v>2</v>
       </c>
       <c r="G13">
         <f t="shared" si="4"/>
+        <v>11</v>
+      </c>
+      <c r="H13" s="7">
+        <f t="shared" si="5"/>
         <v>0.66666666666666663</v>
       </c>
-    </row>
-    <row r="14" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A14">
+      <c r="J13">
+        <f t="shared" si="6"/>
+        <v>2</v>
+      </c>
+      <c r="K13">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L13">
+        <f t="shared" si="8"/>
+        <v>11</v>
+      </c>
+      <c r="M13" s="3">
+        <f t="shared" si="9"/>
+        <v>2.5</v>
+      </c>
+      <c r="N13">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A14" s="4">
+        <f t="shared" si="11"/>
+        <v>12</v>
+      </c>
+      <c r="B14" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C14" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D14" s="4">
+        <f t="shared" si="1"/>
+        <v>4</v>
+      </c>
+      <c r="E14" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F14" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G14" s="4">
+        <f t="shared" si="4"/>
+        <v>12</v>
+      </c>
+      <c r="H14" s="4">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J14" s="4">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K14" s="4">
+        <f t="shared" si="7"/>
+        <v>3</v>
+      </c>
+      <c r="L14" s="4">
+        <f t="shared" si="8"/>
         <v>12</v>
       </c>
-      <c r="B14">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C14">
-        <f t="shared" si="0"/>
-        <v>4</v>
-      </c>
-      <c r="D14">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E14">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F14">
-        <f t="shared" si="3"/>
-        <v>12</v>
-      </c>
-      <c r="G14">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M14" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N14" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A15">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>13</v>
       </c>
       <c r="B15">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C15">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="D15">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="E15">
         <f t="shared" si="2"/>
@@ -822,29 +1194,53 @@
       </c>
       <c r="F15">
         <f t="shared" si="3"/>
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="G15">
         <f t="shared" si="4"/>
+        <v>13</v>
+      </c>
+      <c r="H15" s="3">
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="16" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J15">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K15">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L15">
+        <f t="shared" si="8"/>
+        <v>13</v>
+      </c>
+      <c r="M15" s="7">
+        <f t="shared" si="9"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N15">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A16">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>14</v>
       </c>
       <c r="B16">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C16">
         <f t="shared" si="0"/>
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="D16">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E16">
         <f t="shared" si="2"/>
@@ -852,89 +1248,161 @@
       </c>
       <c r="F16">
         <f t="shared" si="3"/>
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="G16">
         <f t="shared" si="4"/>
+        <v>14</v>
+      </c>
+      <c r="H16" s="7">
+        <f t="shared" si="5"/>
         <v>0.5</v>
       </c>
-    </row>
-    <row r="17" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J16">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K16">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L16">
+        <f t="shared" si="8"/>
+        <v>14</v>
+      </c>
+      <c r="M16" s="3">
+        <f t="shared" si="9"/>
+        <v>1.6666666666666667</v>
+      </c>
+      <c r="N16">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A17">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>15</v>
       </c>
       <c r="B17">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C17">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="D17">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E17">
+        <v>5</v>
+      </c>
+      <c r="E17" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F17">
         <f t="shared" si="3"/>
-        <v>15</v>
+        <v>0</v>
       </c>
       <c r="G17">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="18" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A18">
+        <v>15</v>
+      </c>
+      <c r="H17" s="3">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J17">
+        <f t="shared" si="6"/>
+        <v>3</v>
+      </c>
+      <c r="K17">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L17">
+        <f t="shared" si="8"/>
+        <v>15</v>
+      </c>
+      <c r="M17" s="3">
+        <f t="shared" si="9"/>
+        <v>2</v>
+      </c>
+      <c r="N17">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A18" s="4">
+        <f t="shared" si="11"/>
         <v>16</v>
       </c>
-      <c r="B18">
+      <c r="B18" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C18" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D18" s="4">
+        <f t="shared" si="1"/>
+        <v>5</v>
+      </c>
+      <c r="E18" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F18" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G18" s="4">
+        <f t="shared" si="4"/>
+        <v>16</v>
+      </c>
+      <c r="H18" s="4">
+        <f t="shared" si="5"/>
+        <v>0.2</v>
+      </c>
+      <c r="J18" s="4">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="C18">
-        <f t="shared" si="0"/>
-        <v>5</v>
-      </c>
-      <c r="D18">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E18">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F18">
-        <f t="shared" si="3"/>
+      <c r="K18" s="4">
+        <f t="shared" si="7"/>
+        <v>4</v>
+      </c>
+      <c r="L18" s="4">
+        <f t="shared" si="8"/>
         <v>16</v>
       </c>
-      <c r="G18">
-        <f t="shared" si="4"/>
-        <v>0.2</v>
-      </c>
-    </row>
-    <row r="19" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M18" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N18" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A19">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>17</v>
       </c>
       <c r="B19">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C19">
         <f t="shared" si="0"/>
-        <v>5</v>
+        <v>1</v>
       </c>
       <c r="D19">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="E19">
         <f t="shared" si="2"/>
@@ -942,59 +1410,107 @@
       </c>
       <c r="F19">
         <f t="shared" si="3"/>
-        <v>17</v>
+        <v>2</v>
       </c>
       <c r="G19">
         <f t="shared" si="4"/>
+        <v>17</v>
+      </c>
+      <c r="H19" s="3">
+        <f t="shared" si="5"/>
         <v>0.4</v>
       </c>
-    </row>
-    <row r="20" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J19">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K19">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L19">
+        <f t="shared" si="8"/>
+        <v>17</v>
+      </c>
+      <c r="M19" s="7">
+        <f t="shared" si="9"/>
+        <v>1.25</v>
+      </c>
+      <c r="N19">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A20">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>18</v>
       </c>
       <c r="B20">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C20">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>2</v>
       </c>
       <c r="D20">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E20">
+        <v>6</v>
+      </c>
+      <c r="E20" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F20">
         <f t="shared" si="3"/>
-        <v>18</v>
+        <v>0</v>
       </c>
       <c r="G20">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="21" spans="1:7" x14ac:dyDescent="0.3">
+        <v>18</v>
+      </c>
+      <c r="H20" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K20">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L20">
+        <f t="shared" si="8"/>
+        <v>18</v>
+      </c>
+      <c r="M20" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="N20">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A21">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>19</v>
       </c>
       <c r="B21">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C21">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="D21">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>6</v>
       </c>
       <c r="E21">
         <f t="shared" si="2"/>
@@ -1002,89 +1518,161 @@
       </c>
       <c r="F21">
         <f t="shared" si="3"/>
-        <v>19</v>
+        <v>1</v>
       </c>
       <c r="G21">
         <f t="shared" si="4"/>
+        <v>19</v>
+      </c>
+      <c r="H21" s="3">
+        <f t="shared" si="5"/>
         <v>0.16666666666666666</v>
       </c>
-    </row>
-    <row r="22" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A22">
+      <c r="J21">
+        <f t="shared" si="6"/>
+        <v>4</v>
+      </c>
+      <c r="K21">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L21">
+        <f t="shared" si="8"/>
+        <v>19</v>
+      </c>
+      <c r="M21" s="7">
+        <f t="shared" si="9"/>
+        <v>1.75</v>
+      </c>
+      <c r="N21">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A22" s="4">
+        <f t="shared" si="11"/>
+        <v>20</v>
+      </c>
+      <c r="B22" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C22" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D22" s="4">
+        <f t="shared" si="1"/>
+        <v>6</v>
+      </c>
+      <c r="E22" s="4">
+        <f t="shared" si="2"/>
+        <v>2</v>
+      </c>
+      <c r="F22" s="4">
+        <f t="shared" si="3"/>
+        <v>2</v>
+      </c>
+      <c r="G22" s="4">
+        <f t="shared" si="4"/>
+        <v>20</v>
+      </c>
+      <c r="H22" s="4">
         <f t="shared" si="5"/>
+        <v>0.33333333333333331</v>
+      </c>
+      <c r="J22" s="4">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K22" s="4">
+        <f t="shared" si="7"/>
+        <v>5</v>
+      </c>
+      <c r="L22" s="4">
+        <f t="shared" si="8"/>
         <v>20</v>
       </c>
-      <c r="B22">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C22">
-        <f t="shared" si="0"/>
-        <v>6</v>
-      </c>
-      <c r="D22">
-        <f t="shared" si="1"/>
-        <v>2</v>
-      </c>
-      <c r="E22">
-        <f t="shared" si="2"/>
-        <v>2</v>
-      </c>
-      <c r="F22">
-        <f t="shared" si="3"/>
-        <v>20</v>
-      </c>
-      <c r="G22">
-        <f t="shared" si="4"/>
-        <v>0.33333333333333331</v>
-      </c>
-    </row>
-    <row r="23" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M22" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N22" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A23">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>21</v>
       </c>
       <c r="B23">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C23">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>1</v>
       </c>
       <c r="D23">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E23">
+        <v>7</v>
+      </c>
+      <c r="E23" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F23">
         <f t="shared" si="3"/>
-        <v>21</v>
+        <v>0</v>
       </c>
       <c r="G23">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="24" spans="1:7" x14ac:dyDescent="0.3">
+        <v>21</v>
+      </c>
+      <c r="H23" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J23">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K23">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L23">
+        <f t="shared" si="8"/>
+        <v>21</v>
+      </c>
+      <c r="M23" s="7">
+        <f t="shared" si="9"/>
+        <v>1.2</v>
+      </c>
+      <c r="N23">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A24">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>22</v>
       </c>
       <c r="B24">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C24">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>2</v>
       </c>
       <c r="D24">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>7</v>
       </c>
       <c r="E24">
         <f t="shared" si="2"/>
@@ -1092,29 +1680,53 @@
       </c>
       <c r="F24">
         <f t="shared" si="3"/>
-        <v>22</v>
+        <v>1</v>
       </c>
       <c r="G24">
         <f t="shared" si="4"/>
+        <v>22</v>
+      </c>
+      <c r="H24" s="3">
+        <f t="shared" si="5"/>
         <v>0.14285714285714285</v>
       </c>
-    </row>
-    <row r="25" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J24">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K24">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L24">
+        <f t="shared" si="8"/>
+        <v>22</v>
+      </c>
+      <c r="M24" s="7">
+        <f t="shared" si="9"/>
+        <v>1.4</v>
+      </c>
+      <c r="N24">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A25">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>23</v>
       </c>
       <c r="B25">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C25">
         <f t="shared" si="0"/>
-        <v>7</v>
+        <v>3</v>
       </c>
       <c r="D25">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>7</v>
       </c>
       <c r="E25">
         <f t="shared" si="2"/>
@@ -1122,59 +1734,107 @@
       </c>
       <c r="F25">
         <f t="shared" si="3"/>
-        <v>23</v>
+        <v>2</v>
       </c>
       <c r="G25">
         <f t="shared" si="4"/>
+        <v>23</v>
+      </c>
+      <c r="H25" s="3">
+        <f t="shared" si="5"/>
         <v>0.2857142857142857</v>
       </c>
-    </row>
-    <row r="26" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A26">
+      <c r="J25">
+        <f t="shared" si="6"/>
+        <v>5</v>
+      </c>
+      <c r="K25">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="L25">
+        <f t="shared" si="8"/>
+        <v>23</v>
+      </c>
+      <c r="M25" s="7">
+        <f t="shared" si="9"/>
+        <v>1.6</v>
+      </c>
+      <c r="N25">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A26" s="4">
+        <f t="shared" si="11"/>
+        <v>24</v>
+      </c>
+      <c r="B26" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C26" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D26" s="4">
+        <f t="shared" si="1"/>
+        <v>8</v>
+      </c>
+      <c r="E26" s="5">
+        <f t="shared" si="2"/>
+        <v>0</v>
+      </c>
+      <c r="F26" s="4">
+        <f t="shared" si="3"/>
+        <v>0</v>
+      </c>
+      <c r="G26" s="4">
+        <f t="shared" si="4"/>
+        <v>24</v>
+      </c>
+      <c r="H26" s="4">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J26" s="4">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K26" s="4">
+        <f t="shared" si="7"/>
+        <v>6</v>
+      </c>
+      <c r="L26" s="4">
+        <f t="shared" si="8"/>
         <v>24</v>
       </c>
-      <c r="B26">
-        <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C26">
-        <f t="shared" si="0"/>
-        <v>8</v>
-      </c>
-      <c r="D26">
-        <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E26">
-        <f t="shared" si="2"/>
-        <v>0</v>
-      </c>
-      <c r="F26">
-        <f t="shared" si="3"/>
-        <v>24</v>
-      </c>
-      <c r="G26">
-        <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="27" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M26" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N26" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A27">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>25</v>
       </c>
       <c r="B27">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C27">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>1</v>
       </c>
       <c r="D27">
         <f t="shared" si="1"/>
-        <v>1</v>
+        <v>8</v>
       </c>
       <c r="E27">
         <f t="shared" si="2"/>
@@ -1182,29 +1842,53 @@
       </c>
       <c r="F27">
         <f t="shared" si="3"/>
-        <v>25</v>
+        <v>1</v>
       </c>
       <c r="G27">
         <f t="shared" si="4"/>
+        <v>25</v>
+      </c>
+      <c r="H27" s="3">
+        <f t="shared" si="5"/>
         <v>0.125</v>
       </c>
-    </row>
-    <row r="28" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J27">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K27">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L27">
+        <f t="shared" si="8"/>
+        <v>25</v>
+      </c>
+      <c r="M27" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="N27">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A28">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>26</v>
       </c>
       <c r="B28">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C28">
         <f t="shared" si="0"/>
-        <v>8</v>
+        <v>2</v>
       </c>
       <c r="D28">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="E28">
         <f t="shared" si="2"/>
@@ -1212,89 +1896,161 @@
       </c>
       <c r="F28">
         <f t="shared" si="3"/>
-        <v>26</v>
+        <v>2</v>
       </c>
       <c r="G28">
         <f t="shared" si="4"/>
+        <v>26</v>
+      </c>
+      <c r="H28" s="3">
+        <f t="shared" si="5"/>
         <v>0.25</v>
       </c>
-    </row>
-    <row r="29" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J28">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K28">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="L28">
+        <f t="shared" si="8"/>
+        <v>26</v>
+      </c>
+      <c r="M28" s="7">
+        <f t="shared" si="9"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N28">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A29">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>27</v>
       </c>
       <c r="B29">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C29">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>3</v>
       </c>
       <c r="D29">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E29">
+        <v>9</v>
+      </c>
+      <c r="E29" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F29">
         <f t="shared" si="3"/>
-        <v>27</v>
+        <v>0</v>
       </c>
       <c r="G29">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
-    </row>
-    <row r="30" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A30">
+        <v>27</v>
+      </c>
+      <c r="H29" s="3">
         <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <f t="shared" si="6"/>
+        <v>6</v>
+      </c>
+      <c r="K29">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="L29">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="M29" s="3">
+        <f t="shared" si="9"/>
+        <v>1.5</v>
+      </c>
+      <c r="N29">
+        <f t="shared" si="10"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A30" s="4">
+        <f t="shared" si="11"/>
         <v>28</v>
       </c>
-      <c r="B30">
+      <c r="B30" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C30" s="4">
+        <f t="shared" si="0"/>
+        <v>0</v>
+      </c>
+      <c r="D30" s="4">
+        <f t="shared" si="1"/>
+        <v>9</v>
+      </c>
+      <c r="E30" s="4">
+        <f t="shared" si="2"/>
+        <v>1</v>
+      </c>
+      <c r="F30" s="4">
+        <f t="shared" si="3"/>
+        <v>1</v>
+      </c>
+      <c r="G30" s="4">
+        <f t="shared" si="4"/>
+        <v>28</v>
+      </c>
+      <c r="H30" s="4">
+        <f t="shared" si="5"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J30" s="4">
         <f t="shared" si="6"/>
-        <v>4</v>
-      </c>
-      <c r="C30">
-        <f t="shared" si="0"/>
-        <v>9</v>
-      </c>
-      <c r="D30">
-        <f t="shared" si="1"/>
-        <v>1</v>
-      </c>
-      <c r="E30">
-        <f t="shared" si="2"/>
-        <v>1</v>
-      </c>
-      <c r="F30">
-        <f t="shared" si="3"/>
+        <v>7</v>
+      </c>
+      <c r="K30" s="4">
+        <f t="shared" si="7"/>
+        <v>7</v>
+      </c>
+      <c r="L30" s="4">
+        <f t="shared" si="8"/>
         <v>28</v>
       </c>
-      <c r="G30">
-        <f t="shared" si="4"/>
-        <v>0.1111111111111111</v>
-      </c>
-    </row>
-    <row r="31" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="M30" s="4">
+        <f t="shared" si="9"/>
+        <v>1</v>
+      </c>
+      <c r="N30" s="4">
+        <f t="shared" si="10"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A31">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>29</v>
       </c>
       <c r="B31">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C31">
         <f t="shared" si="0"/>
-        <v>9</v>
+        <v>1</v>
       </c>
       <c r="D31">
         <f t="shared" si="1"/>
-        <v>2</v>
+        <v>9</v>
       </c>
       <c r="E31">
         <f t="shared" si="2"/>
@@ -1302,45 +2058,3769 @@
       </c>
       <c r="F31">
         <f t="shared" si="3"/>
-        <v>29</v>
+        <v>2</v>
       </c>
       <c r="G31">
         <f t="shared" si="4"/>
+        <v>29</v>
+      </c>
+      <c r="H31" s="3">
+        <f t="shared" si="5"/>
         <v>0.22222222222222221</v>
       </c>
-    </row>
-    <row r="32" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="J31">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="K31">
+        <f t="shared" si="7"/>
+        <v>8</v>
+      </c>
+      <c r="L31">
+        <f t="shared" si="8"/>
+        <v>29</v>
+      </c>
+      <c r="M31" s="7">
+        <f t="shared" si="9"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="N31">
+        <f t="shared" si="10"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
       <c r="A32">
-        <f t="shared" si="5"/>
+        <f t="shared" si="11"/>
         <v>30</v>
       </c>
       <c r="B32">
-        <f t="shared" si="6"/>
+        <f t="shared" si="12"/>
         <v>4</v>
       </c>
       <c r="C32">
         <f t="shared" si="0"/>
-        <v>10</v>
+        <v>2</v>
       </c>
       <c r="D32">
         <f t="shared" si="1"/>
-        <v>0</v>
-      </c>
-      <c r="E32">
+        <v>10</v>
+      </c>
+      <c r="E32" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
       <c r="F32">
         <f t="shared" si="3"/>
-        <v>30</v>
+        <v>0</v>
       </c>
       <c r="G32">
         <f t="shared" si="4"/>
-        <v>0</v>
-      </c>
+        <v>30</v>
+      </c>
+      <c r="H32" s="3">
+        <f t="shared" si="5"/>
+        <v>0</v>
+      </c>
+      <c r="J32">
+        <f t="shared" si="6"/>
+        <v>7</v>
+      </c>
+      <c r="K32">
+        <f t="shared" si="7"/>
+        <v>9</v>
+      </c>
+      <c r="L32">
+        <f t="shared" si="8"/>
+        <v>30</v>
+      </c>
+      <c r="M32" s="3">
+        <f t="shared" si="9"/>
+        <v>1.2857142857142858</v>
+      </c>
+      <c r="N32">
+        <f t="shared" si="10"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <f t="shared" si="11"/>
+        <v>31</v>
+      </c>
+      <c r="B33">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C33">
+        <f t="shared" ref="C33:C96" si="13">MOD(A33,B33)</f>
+        <v>3</v>
+      </c>
+      <c r="D33">
+        <f t="shared" ref="D33:D96" si="14">INT(A33/(B33-1))</f>
+        <v>10</v>
+      </c>
+      <c r="E33" s="8">
+        <f t="shared" ref="E33:E96" si="15">A33-(B33-1)*D33</f>
+        <v>1</v>
+      </c>
+      <c r="F33">
+        <f t="shared" ref="F33:F96" si="16">MOD(A33,B33-1)</f>
+        <v>1</v>
+      </c>
+      <c r="G33">
+        <f t="shared" ref="G33:G96" si="17">D33*(B33-1)+E33</f>
+        <v>31</v>
+      </c>
+      <c r="H33" s="3">
+        <f t="shared" ref="H33:H96" si="18">E33/D33</f>
+        <v>0.1</v>
+      </c>
+      <c r="J33">
+        <f t="shared" ref="J33:J96" si="19">INT(A33/B33)</f>
+        <v>7</v>
+      </c>
+      <c r="K33">
+        <f t="shared" ref="K33:K96" si="20">A33-(B33-1)*J33</f>
+        <v>10</v>
+      </c>
+      <c r="L33">
+        <f t="shared" ref="L33:L96" si="21">(B33-1)*J33+K33</f>
+        <v>31</v>
+      </c>
+      <c r="M33" s="3">
+        <f t="shared" ref="M33:M96" si="22">K33/J33</f>
+        <v>1.4285714285714286</v>
+      </c>
+      <c r="N33">
+        <f t="shared" ref="N33:N96" si="23">K33-J33</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A34" s="4">
+        <f t="shared" si="11"/>
+        <v>32</v>
+      </c>
+      <c r="B34" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C34" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D34" s="4">
+        <f t="shared" si="14"/>
+        <v>10</v>
+      </c>
+      <c r="E34" s="4">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F34" s="4">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G34" s="4">
+        <f t="shared" si="17"/>
+        <v>32</v>
+      </c>
+      <c r="H34" s="4">
+        <f t="shared" si="18"/>
+        <v>0.2</v>
+      </c>
+      <c r="J34" s="4">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="K34" s="4">
+        <f t="shared" si="20"/>
+        <v>8</v>
+      </c>
+      <c r="L34" s="4">
+        <f t="shared" si="21"/>
+        <v>32</v>
+      </c>
+      <c r="M34" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N34" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35">
+        <f t="shared" si="11"/>
+        <v>33</v>
+      </c>
+      <c r="B35">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C35">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D35">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E35" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F35">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G35">
+        <f t="shared" si="17"/>
+        <v>33</v>
+      </c>
+      <c r="H35" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J35">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="K35">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="L35">
+        <f t="shared" si="21"/>
+        <v>33</v>
+      </c>
+      <c r="M35" s="3">
+        <f t="shared" si="22"/>
+        <v>1.125</v>
+      </c>
+      <c r="N35">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <f t="shared" si="11"/>
+        <v>34</v>
+      </c>
+      <c r="B36">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C36">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D36">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E36" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F36">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G36">
+        <f t="shared" si="17"/>
+        <v>34</v>
+      </c>
+      <c r="H36" s="3">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J36">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="K36">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="L36">
+        <f t="shared" si="21"/>
+        <v>34</v>
+      </c>
+      <c r="M36" s="3">
+        <f t="shared" si="22"/>
+        <v>1.25</v>
+      </c>
+      <c r="N36">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <f t="shared" si="11"/>
+        <v>35</v>
+      </c>
+      <c r="B37">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C37">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D37">
+        <f t="shared" si="14"/>
+        <v>11</v>
+      </c>
+      <c r="E37" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F37">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G37">
+        <f t="shared" si="17"/>
+        <v>35</v>
+      </c>
+      <c r="H37" s="3">
+        <f t="shared" si="18"/>
+        <v>0.18181818181818182</v>
+      </c>
+      <c r="J37">
+        <f t="shared" si="19"/>
+        <v>8</v>
+      </c>
+      <c r="K37">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="L37">
+        <f t="shared" si="21"/>
+        <v>35</v>
+      </c>
+      <c r="M37" s="3">
+        <f t="shared" si="22"/>
+        <v>1.375</v>
+      </c>
+      <c r="N37">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="38" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A38" s="4">
+        <f t="shared" si="11"/>
+        <v>36</v>
+      </c>
+      <c r="B38" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C38" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D38" s="4">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="E38" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F38" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G38" s="4">
+        <f t="shared" si="17"/>
+        <v>36</v>
+      </c>
+      <c r="H38" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J38" s="4">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K38" s="4">
+        <f t="shared" si="20"/>
+        <v>9</v>
+      </c>
+      <c r="L38" s="4">
+        <f t="shared" si="21"/>
+        <v>36</v>
+      </c>
+      <c r="M38" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N38" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <f t="shared" si="11"/>
+        <v>37</v>
+      </c>
+      <c r="B39">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C39">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D39">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="E39" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F39">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G39">
+        <f t="shared" si="17"/>
+        <v>37</v>
+      </c>
+      <c r="H39" s="3">
+        <f t="shared" si="18"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J39">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K39">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="L39">
+        <f t="shared" si="21"/>
+        <v>37</v>
+      </c>
+      <c r="M39" s="7">
+        <f t="shared" si="22"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="N39">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <f t="shared" si="11"/>
+        <v>38</v>
+      </c>
+      <c r="B40">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C40">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D40">
+        <f t="shared" si="14"/>
+        <v>12</v>
+      </c>
+      <c r="E40" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F40">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G40">
+        <f t="shared" si="17"/>
+        <v>38</v>
+      </c>
+      <c r="H40" s="3">
+        <f t="shared" si="18"/>
+        <v>0.16666666666666666</v>
+      </c>
+      <c r="J40">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K40">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="L40">
+        <f t="shared" si="21"/>
+        <v>38</v>
+      </c>
+      <c r="M40" s="7">
+        <f t="shared" si="22"/>
+        <v>1.2222222222222223</v>
+      </c>
+      <c r="N40">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <f t="shared" si="11"/>
+        <v>39</v>
+      </c>
+      <c r="B41">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C41">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D41">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="E41" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F41">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G41">
+        <f t="shared" si="17"/>
+        <v>39</v>
+      </c>
+      <c r="H41" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J41">
+        <f t="shared" si="19"/>
+        <v>9</v>
+      </c>
+      <c r="K41">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="L41">
+        <f t="shared" si="21"/>
+        <v>39</v>
+      </c>
+      <c r="M41" s="7">
+        <f t="shared" si="22"/>
+        <v>1.3333333333333333</v>
+      </c>
+      <c r="N41">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A42" s="4">
+        <f t="shared" si="11"/>
+        <v>40</v>
+      </c>
+      <c r="B42" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C42" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D42" s="4">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="E42" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F42" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G42" s="4">
+        <f t="shared" si="17"/>
+        <v>40</v>
+      </c>
+      <c r="H42" s="4">
+        <f t="shared" si="18"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="J42" s="4">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="K42" s="4">
+        <f t="shared" si="20"/>
+        <v>10</v>
+      </c>
+      <c r="L42" s="4">
+        <f t="shared" si="21"/>
+        <v>40</v>
+      </c>
+      <c r="M42" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N42" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <f t="shared" si="11"/>
+        <v>41</v>
+      </c>
+      <c r="B43">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C43">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D43">
+        <f t="shared" si="14"/>
+        <v>13</v>
+      </c>
+      <c r="E43" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F43">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G43">
+        <f t="shared" si="17"/>
+        <v>41</v>
+      </c>
+      <c r="H43" s="3">
+        <f t="shared" si="18"/>
+        <v>0.15384615384615385</v>
+      </c>
+      <c r="J43">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="K43">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="L43">
+        <f t="shared" si="21"/>
+        <v>41</v>
+      </c>
+      <c r="M43" s="7">
+        <f t="shared" si="22"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N43">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <f t="shared" si="11"/>
+        <v>42</v>
+      </c>
+      <c r="B44">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C44">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D44">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="E44" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F44">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G44">
+        <f t="shared" si="17"/>
+        <v>42</v>
+      </c>
+      <c r="H44" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J44">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="K44">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="L44">
+        <f t="shared" si="21"/>
+        <v>42</v>
+      </c>
+      <c r="M44" s="7">
+        <f t="shared" si="22"/>
+        <v>1.2</v>
+      </c>
+      <c r="N44">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <f t="shared" si="11"/>
+        <v>43</v>
+      </c>
+      <c r="B45">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C45">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D45">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="E45" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F45">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G45">
+        <f t="shared" si="17"/>
+        <v>43</v>
+      </c>
+      <c r="H45" s="3">
+        <f t="shared" si="18"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J45">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+      <c r="K45">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="L45">
+        <f t="shared" si="21"/>
+        <v>43</v>
+      </c>
+      <c r="M45" s="7">
+        <f t="shared" si="22"/>
+        <v>1.3</v>
+      </c>
+      <c r="N45">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A46" s="4">
+        <f t="shared" si="11"/>
+        <v>44</v>
+      </c>
+      <c r="B46" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C46" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D46" s="4">
+        <f t="shared" si="14"/>
+        <v>14</v>
+      </c>
+      <c r="E46" s="4">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F46" s="4">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G46" s="4">
+        <f t="shared" si="17"/>
+        <v>44</v>
+      </c>
+      <c r="H46" s="4">
+        <f t="shared" si="18"/>
+        <v>0.14285714285714285</v>
+      </c>
+      <c r="J46" s="4">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="K46" s="4">
+        <f t="shared" si="20"/>
+        <v>11</v>
+      </c>
+      <c r="L46" s="4">
+        <f t="shared" si="21"/>
+        <v>44</v>
+      </c>
+      <c r="M46" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N46" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <f t="shared" si="11"/>
+        <v>45</v>
+      </c>
+      <c r="B47">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C47">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D47">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E47" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F47">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G47">
+        <f t="shared" si="17"/>
+        <v>45</v>
+      </c>
+      <c r="H47" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J47">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="K47">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="L47">
+        <f t="shared" si="21"/>
+        <v>45</v>
+      </c>
+      <c r="M47" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="N47">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <f t="shared" si="11"/>
+        <v>46</v>
+      </c>
+      <c r="B48">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C48">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D48">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E48" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F48">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G48">
+        <f t="shared" si="17"/>
+        <v>46</v>
+      </c>
+      <c r="H48" s="3">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J48">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="K48">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="L48">
+        <f t="shared" si="21"/>
+        <v>46</v>
+      </c>
+      <c r="M48" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1818181818181819</v>
+      </c>
+      <c r="N48">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <f t="shared" si="11"/>
+        <v>47</v>
+      </c>
+      <c r="B49">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C49">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D49">
+        <f t="shared" si="14"/>
+        <v>15</v>
+      </c>
+      <c r="E49" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F49">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G49">
+        <f t="shared" si="17"/>
+        <v>47</v>
+      </c>
+      <c r="H49" s="3">
+        <f t="shared" si="18"/>
+        <v>0.13333333333333333</v>
+      </c>
+      <c r="J49">
+        <f t="shared" si="19"/>
+        <v>11</v>
+      </c>
+      <c r="K49">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="L49">
+        <f t="shared" si="21"/>
+        <v>47</v>
+      </c>
+      <c r="M49" s="3">
+        <f t="shared" si="22"/>
+        <v>1.2727272727272727</v>
+      </c>
+      <c r="N49">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="50" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A50" s="4">
+        <f t="shared" si="11"/>
+        <v>48</v>
+      </c>
+      <c r="B50" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C50" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D50" s="4">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E50" s="4">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F50" s="4">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G50" s="4">
+        <f t="shared" si="17"/>
+        <v>48</v>
+      </c>
+      <c r="H50" s="4">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J50" s="4">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="K50" s="4">
+        <f t="shared" si="20"/>
+        <v>12</v>
+      </c>
+      <c r="L50" s="4">
+        <f t="shared" si="21"/>
+        <v>48</v>
+      </c>
+      <c r="M50" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N50" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="51" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <f t="shared" si="11"/>
+        <v>49</v>
+      </c>
+      <c r="B51">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C51">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D51">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E51" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F51">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G51">
+        <f t="shared" si="17"/>
+        <v>49</v>
+      </c>
+      <c r="H51" s="3">
+        <f t="shared" si="18"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J51">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="K51">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="L51">
+        <f t="shared" si="21"/>
+        <v>49</v>
+      </c>
+      <c r="M51" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="N51">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="52" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <f t="shared" si="11"/>
+        <v>50</v>
+      </c>
+      <c r="B52">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C52">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D52">
+        <f t="shared" si="14"/>
+        <v>16</v>
+      </c>
+      <c r="E52" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F52">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G52">
+        <f t="shared" si="17"/>
+        <v>50</v>
+      </c>
+      <c r="H52" s="3">
+        <f t="shared" si="18"/>
+        <v>0.125</v>
+      </c>
+      <c r="J52">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="K52">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="L52">
+        <f t="shared" si="21"/>
+        <v>50</v>
+      </c>
+      <c r="M52" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="N52">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="53" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <f t="shared" si="11"/>
+        <v>51</v>
+      </c>
+      <c r="B53">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C53">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D53">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="E53" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F53">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G53">
+        <f t="shared" si="17"/>
+        <v>51</v>
+      </c>
+      <c r="H53" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J53">
+        <f t="shared" si="19"/>
+        <v>12</v>
+      </c>
+      <c r="K53">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="L53">
+        <f t="shared" si="21"/>
+        <v>51</v>
+      </c>
+      <c r="M53" s="3">
+        <f t="shared" si="22"/>
+        <v>1.25</v>
+      </c>
+      <c r="N53">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A54" s="4">
+        <f t="shared" si="11"/>
+        <v>52</v>
+      </c>
+      <c r="B54" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C54" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D54" s="4">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="E54" s="4">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F54" s="4">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G54" s="4">
+        <f t="shared" si="17"/>
+        <v>52</v>
+      </c>
+      <c r="H54" s="4">
+        <f t="shared" si="18"/>
+        <v>5.8823529411764705E-2</v>
+      </c>
+      <c r="J54" s="4">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="K54" s="4">
+        <f t="shared" si="20"/>
+        <v>13</v>
+      </c>
+      <c r="L54" s="4">
+        <f t="shared" si="21"/>
+        <v>52</v>
+      </c>
+      <c r="M54" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N54" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="55" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <f t="shared" si="11"/>
+        <v>53</v>
+      </c>
+      <c r="B55">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C55">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D55">
+        <f t="shared" si="14"/>
+        <v>17</v>
+      </c>
+      <c r="E55" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F55">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G55">
+        <f t="shared" si="17"/>
+        <v>53</v>
+      </c>
+      <c r="H55" s="3">
+        <f t="shared" si="18"/>
+        <v>0.11764705882352941</v>
+      </c>
+      <c r="J55">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="K55">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="L55">
+        <f t="shared" si="21"/>
+        <v>53</v>
+      </c>
+      <c r="M55" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0769230769230769</v>
+      </c>
+      <c r="N55">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="56" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <f t="shared" si="11"/>
+        <v>54</v>
+      </c>
+      <c r="B56">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C56">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D56">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="E56" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F56">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G56">
+        <f t="shared" si="17"/>
+        <v>54</v>
+      </c>
+      <c r="H56" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J56">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="K56">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="L56">
+        <f t="shared" si="21"/>
+        <v>54</v>
+      </c>
+      <c r="M56" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1538461538461537</v>
+      </c>
+      <c r="N56">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <f t="shared" si="11"/>
+        <v>55</v>
+      </c>
+      <c r="B57">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C57">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D57">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="E57" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F57">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G57">
+        <f t="shared" si="17"/>
+        <v>55</v>
+      </c>
+      <c r="H57" s="3">
+        <f t="shared" si="18"/>
+        <v>5.5555555555555552E-2</v>
+      </c>
+      <c r="J57">
+        <f t="shared" si="19"/>
+        <v>13</v>
+      </c>
+      <c r="K57">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="L57">
+        <f t="shared" si="21"/>
+        <v>55</v>
+      </c>
+      <c r="M57" s="3">
+        <f t="shared" si="22"/>
+        <v>1.2307692307692308</v>
+      </c>
+      <c r="N57">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58" spans="1:14" s="4" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A58" s="4">
+        <f t="shared" si="11"/>
+        <v>56</v>
+      </c>
+      <c r="B58" s="4">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C58" s="4">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D58" s="4">
+        <f t="shared" si="14"/>
+        <v>18</v>
+      </c>
+      <c r="E58" s="4">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F58" s="4">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G58" s="4">
+        <f t="shared" si="17"/>
+        <v>56</v>
+      </c>
+      <c r="H58" s="4">
+        <f t="shared" si="18"/>
+        <v>0.1111111111111111</v>
+      </c>
+      <c r="J58" s="4">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="K58" s="4">
+        <f t="shared" si="20"/>
+        <v>14</v>
+      </c>
+      <c r="L58" s="4">
+        <f t="shared" si="21"/>
+        <v>56</v>
+      </c>
+      <c r="M58" s="4">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N58" s="4">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="59" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <f t="shared" si="11"/>
+        <v>57</v>
+      </c>
+      <c r="B59">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C59">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D59">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="E59" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F59">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G59">
+        <f t="shared" si="17"/>
+        <v>57</v>
+      </c>
+      <c r="H59" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J59">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="K59">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="L59">
+        <f t="shared" si="21"/>
+        <v>57</v>
+      </c>
+      <c r="M59" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0714285714285714</v>
+      </c>
+      <c r="N59">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <f t="shared" si="11"/>
+        <v>58</v>
+      </c>
+      <c r="B60">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C60">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D60">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="E60" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F60">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G60">
+        <f t="shared" si="17"/>
+        <v>58</v>
+      </c>
+      <c r="H60" s="3">
+        <f t="shared" si="18"/>
+        <v>5.2631578947368418E-2</v>
+      </c>
+      <c r="J60">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="K60">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="L60">
+        <f t="shared" si="21"/>
+        <v>58</v>
+      </c>
+      <c r="M60" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="N60">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <f t="shared" si="11"/>
+        <v>59</v>
+      </c>
+      <c r="B61">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C61">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D61">
+        <f t="shared" si="14"/>
+        <v>19</v>
+      </c>
+      <c r="E61" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F61">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G61">
+        <f t="shared" si="17"/>
+        <v>59</v>
+      </c>
+      <c r="H61" s="3">
+        <f t="shared" si="18"/>
+        <v>0.10526315789473684</v>
+      </c>
+      <c r="J61">
+        <f t="shared" si="19"/>
+        <v>14</v>
+      </c>
+      <c r="K61">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="L61">
+        <f t="shared" si="21"/>
+        <v>59</v>
+      </c>
+      <c r="M61" s="3">
+        <f t="shared" si="22"/>
+        <v>1.2142857142857142</v>
+      </c>
+      <c r="N61">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <f t="shared" si="11"/>
+        <v>60</v>
+      </c>
+      <c r="B62">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C62">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D62">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E62" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F62">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G62">
+        <f t="shared" si="17"/>
+        <v>60</v>
+      </c>
+      <c r="H62" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J62">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="K62">
+        <f t="shared" si="20"/>
+        <v>15</v>
+      </c>
+      <c r="L62">
+        <f t="shared" si="21"/>
+        <v>60</v>
+      </c>
+      <c r="M62" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N62">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <f t="shared" si="11"/>
+        <v>61</v>
+      </c>
+      <c r="B63">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C63">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D63">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E63" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F63">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G63">
+        <f t="shared" si="17"/>
+        <v>61</v>
+      </c>
+      <c r="H63" s="3">
+        <f t="shared" si="18"/>
+        <v>0.05</v>
+      </c>
+      <c r="J63">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="K63">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="L63">
+        <f t="shared" si="21"/>
+        <v>61</v>
+      </c>
+      <c r="M63" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0666666666666667</v>
+      </c>
+      <c r="N63">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <f t="shared" si="11"/>
+        <v>62</v>
+      </c>
+      <c r="B64">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C64">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D64">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="E64" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F64">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G64">
+        <f t="shared" si="17"/>
+        <v>62</v>
+      </c>
+      <c r="H64" s="3">
+        <f t="shared" si="18"/>
+        <v>0.1</v>
+      </c>
+      <c r="J64">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="K64">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="L64">
+        <f t="shared" si="21"/>
+        <v>62</v>
+      </c>
+      <c r="M64" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1333333333333333</v>
+      </c>
+      <c r="N64">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <f t="shared" si="11"/>
+        <v>63</v>
+      </c>
+      <c r="B65">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C65">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D65">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="E65" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F65">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G65">
+        <f t="shared" si="17"/>
+        <v>63</v>
+      </c>
+      <c r="H65" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J65">
+        <f t="shared" si="19"/>
+        <v>15</v>
+      </c>
+      <c r="K65">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="L65">
+        <f t="shared" si="21"/>
+        <v>63</v>
+      </c>
+      <c r="M65" s="3">
+        <f t="shared" si="22"/>
+        <v>1.2</v>
+      </c>
+      <c r="N65">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="66" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <f t="shared" si="11"/>
+        <v>64</v>
+      </c>
+      <c r="B66">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C66">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D66">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="E66" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F66">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G66">
+        <f t="shared" si="17"/>
+        <v>64</v>
+      </c>
+      <c r="H66" s="3">
+        <f t="shared" si="18"/>
+        <v>4.7619047619047616E-2</v>
+      </c>
+      <c r="J66">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="K66">
+        <f t="shared" si="20"/>
+        <v>16</v>
+      </c>
+      <c r="L66">
+        <f t="shared" si="21"/>
+        <v>64</v>
+      </c>
+      <c r="M66" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N66">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="67" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <f t="shared" si="11"/>
+        <v>65</v>
+      </c>
+      <c r="B67">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C67">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D67">
+        <f t="shared" si="14"/>
+        <v>21</v>
+      </c>
+      <c r="E67" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F67">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G67">
+        <f t="shared" si="17"/>
+        <v>65</v>
+      </c>
+      <c r="H67" s="3">
+        <f t="shared" si="18"/>
+        <v>9.5238095238095233E-2</v>
+      </c>
+      <c r="J67">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="K67">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="L67">
+        <f t="shared" si="21"/>
+        <v>65</v>
+      </c>
+      <c r="M67" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0625</v>
+      </c>
+      <c r="N67">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="68" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <f t="shared" si="11"/>
+        <v>66</v>
+      </c>
+      <c r="B68">
+        <f t="shared" si="12"/>
+        <v>4</v>
+      </c>
+      <c r="C68">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D68">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="E68" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F68">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G68">
+        <f t="shared" si="17"/>
+        <v>66</v>
+      </c>
+      <c r="H68" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J68">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="K68">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="L68">
+        <f t="shared" si="21"/>
+        <v>66</v>
+      </c>
+      <c r="M68" s="3">
+        <f t="shared" si="22"/>
+        <v>1.125</v>
+      </c>
+      <c r="N68">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <f t="shared" ref="A69:A100" si="24">A68+1</f>
+        <v>67</v>
+      </c>
+      <c r="B69">
+        <f t="shared" ref="B69:B100" si="25">B68</f>
+        <v>4</v>
+      </c>
+      <c r="C69">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D69">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="E69" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F69">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G69">
+        <f t="shared" si="17"/>
+        <v>67</v>
+      </c>
+      <c r="H69" s="3">
+        <f t="shared" si="18"/>
+        <v>4.5454545454545456E-2</v>
+      </c>
+      <c r="J69">
+        <f t="shared" si="19"/>
+        <v>16</v>
+      </c>
+      <c r="K69">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="L69">
+        <f t="shared" si="21"/>
+        <v>67</v>
+      </c>
+      <c r="M69" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1875</v>
+      </c>
+      <c r="N69">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="70" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <f t="shared" si="24"/>
+        <v>68</v>
+      </c>
+      <c r="B70">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C70">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D70">
+        <f t="shared" si="14"/>
+        <v>22</v>
+      </c>
+      <c r="E70" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F70">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G70">
+        <f t="shared" si="17"/>
+        <v>68</v>
+      </c>
+      <c r="H70" s="3">
+        <f t="shared" si="18"/>
+        <v>9.0909090909090912E-2</v>
+      </c>
+      <c r="J70">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="K70">
+        <f t="shared" si="20"/>
+        <v>17</v>
+      </c>
+      <c r="L70">
+        <f t="shared" si="21"/>
+        <v>68</v>
+      </c>
+      <c r="M70" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N70">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="71" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A71">
+        <f t="shared" si="24"/>
+        <v>69</v>
+      </c>
+      <c r="B71">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C71">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D71">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="E71" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F71">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G71">
+        <f t="shared" si="17"/>
+        <v>69</v>
+      </c>
+      <c r="H71" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J71">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="K71">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="L71">
+        <f t="shared" si="21"/>
+        <v>69</v>
+      </c>
+      <c r="M71" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0588235294117647</v>
+      </c>
+      <c r="N71">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A72">
+        <f t="shared" si="24"/>
+        <v>70</v>
+      </c>
+      <c r="B72">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C72">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D72">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="E72" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F72">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G72">
+        <f t="shared" si="17"/>
+        <v>70</v>
+      </c>
+      <c r="H72" s="3">
+        <f t="shared" si="18"/>
+        <v>4.3478260869565216E-2</v>
+      </c>
+      <c r="J72">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="K72">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="L72">
+        <f t="shared" si="21"/>
+        <v>70</v>
+      </c>
+      <c r="M72" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1176470588235294</v>
+      </c>
+      <c r="N72">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="73" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <f t="shared" si="24"/>
+        <v>71</v>
+      </c>
+      <c r="B73">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C73">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D73">
+        <f t="shared" si="14"/>
+        <v>23</v>
+      </c>
+      <c r="E73" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F73">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G73">
+        <f t="shared" si="17"/>
+        <v>71</v>
+      </c>
+      <c r="H73" s="3">
+        <f t="shared" si="18"/>
+        <v>8.6956521739130432E-2</v>
+      </c>
+      <c r="J73">
+        <f t="shared" si="19"/>
+        <v>17</v>
+      </c>
+      <c r="K73">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="L73">
+        <f t="shared" si="21"/>
+        <v>71</v>
+      </c>
+      <c r="M73" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1764705882352942</v>
+      </c>
+      <c r="N73">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <f t="shared" si="24"/>
+        <v>72</v>
+      </c>
+      <c r="B74">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C74">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D74">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="E74" s="5">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F74">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G74">
+        <f t="shared" si="17"/>
+        <v>72</v>
+      </c>
+      <c r="H74" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J74">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="K74">
+        <f t="shared" si="20"/>
+        <v>18</v>
+      </c>
+      <c r="L74">
+        <f t="shared" si="21"/>
+        <v>72</v>
+      </c>
+      <c r="M74" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N74">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="75" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <f t="shared" si="24"/>
+        <v>73</v>
+      </c>
+      <c r="B75">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C75">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D75">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="E75" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F75">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G75">
+        <f t="shared" si="17"/>
+        <v>73</v>
+      </c>
+      <c r="H75" s="3">
+        <f t="shared" si="18"/>
+        <v>4.1666666666666664E-2</v>
+      </c>
+      <c r="J75">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="K75">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="L75">
+        <f t="shared" si="21"/>
+        <v>73</v>
+      </c>
+      <c r="M75" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0555555555555556</v>
+      </c>
+      <c r="N75">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="76" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <f t="shared" si="24"/>
+        <v>74</v>
+      </c>
+      <c r="B76">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C76">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D76">
+        <f t="shared" si="14"/>
+        <v>24</v>
+      </c>
+      <c r="E76" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F76">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G76">
+        <f t="shared" si="17"/>
+        <v>74</v>
+      </c>
+      <c r="H76" s="3">
+        <f t="shared" si="18"/>
+        <v>8.3333333333333329E-2</v>
+      </c>
+      <c r="J76">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="K76">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="L76">
+        <f t="shared" si="21"/>
+        <v>74</v>
+      </c>
+      <c r="M76" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1111111111111112</v>
+      </c>
+      <c r="N76">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <f t="shared" si="24"/>
+        <v>75</v>
+      </c>
+      <c r="B77">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C77">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D77">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="E77" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F77">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G77">
+        <f t="shared" si="17"/>
+        <v>75</v>
+      </c>
+      <c r="H77" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J77">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+      <c r="K77">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="L77">
+        <f t="shared" si="21"/>
+        <v>75</v>
+      </c>
+      <c r="M77" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1666666666666667</v>
+      </c>
+      <c r="N77">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <f t="shared" si="24"/>
+        <v>76</v>
+      </c>
+      <c r="B78">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C78">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D78">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="E78" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F78">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G78">
+        <f t="shared" si="17"/>
+        <v>76</v>
+      </c>
+      <c r="H78" s="3">
+        <f t="shared" si="18"/>
+        <v>0.04</v>
+      </c>
+      <c r="J78">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="K78">
+        <f t="shared" si="20"/>
+        <v>19</v>
+      </c>
+      <c r="L78">
+        <f t="shared" si="21"/>
+        <v>76</v>
+      </c>
+      <c r="M78" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N78">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="79" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <f t="shared" si="24"/>
+        <v>77</v>
+      </c>
+      <c r="B79">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C79">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D79">
+        <f t="shared" si="14"/>
+        <v>25</v>
+      </c>
+      <c r="E79" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F79">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G79">
+        <f t="shared" si="17"/>
+        <v>77</v>
+      </c>
+      <c r="H79" s="3">
+        <f t="shared" si="18"/>
+        <v>0.08</v>
+      </c>
+      <c r="J79">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="K79">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="L79">
+        <f t="shared" si="21"/>
+        <v>77</v>
+      </c>
+      <c r="M79" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0526315789473684</v>
+      </c>
+      <c r="N79">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <f t="shared" si="24"/>
+        <v>78</v>
+      </c>
+      <c r="B80">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C80">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D80">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="E80" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F80">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G80">
+        <f t="shared" si="17"/>
+        <v>78</v>
+      </c>
+      <c r="H80" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J80">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="K80">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="L80">
+        <f t="shared" si="21"/>
+        <v>78</v>
+      </c>
+      <c r="M80" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1052631578947369</v>
+      </c>
+      <c r="N80">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="81" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <f t="shared" si="24"/>
+        <v>79</v>
+      </c>
+      <c r="B81">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C81">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D81">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="E81" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F81">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G81">
+        <f t="shared" si="17"/>
+        <v>79</v>
+      </c>
+      <c r="H81" s="3">
+        <f t="shared" si="18"/>
+        <v>3.8461538461538464E-2</v>
+      </c>
+      <c r="J81">
+        <f t="shared" si="19"/>
+        <v>19</v>
+      </c>
+      <c r="K81">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="L81">
+        <f t="shared" si="21"/>
+        <v>79</v>
+      </c>
+      <c r="M81" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1578947368421053</v>
+      </c>
+      <c r="N81">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <f t="shared" si="24"/>
+        <v>80</v>
+      </c>
+      <c r="B82">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C82">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D82">
+        <f t="shared" si="14"/>
+        <v>26</v>
+      </c>
+      <c r="E82" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F82">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G82">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+      <c r="H82" s="3">
+        <f t="shared" si="18"/>
+        <v>7.6923076923076927E-2</v>
+      </c>
+      <c r="J82">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K82">
+        <f t="shared" si="20"/>
+        <v>20</v>
+      </c>
+      <c r="L82">
+        <f t="shared" si="21"/>
+        <v>80</v>
+      </c>
+      <c r="M82" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N82">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="83" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <f t="shared" si="24"/>
+        <v>81</v>
+      </c>
+      <c r="B83">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C83">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D83">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="E83" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F83">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G83">
+        <f t="shared" si="17"/>
+        <v>81</v>
+      </c>
+      <c r="H83" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J83">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K83">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="L83">
+        <f t="shared" si="21"/>
+        <v>81</v>
+      </c>
+      <c r="M83" s="3">
+        <f t="shared" si="22"/>
+        <v>1.05</v>
+      </c>
+      <c r="N83">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <f t="shared" si="24"/>
+        <v>82</v>
+      </c>
+      <c r="B84">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C84">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D84">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="E84" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F84">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G84">
+        <f t="shared" si="17"/>
+        <v>82</v>
+      </c>
+      <c r="H84" s="3">
+        <f t="shared" si="18"/>
+        <v>3.7037037037037035E-2</v>
+      </c>
+      <c r="J84">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K84">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="L84">
+        <f t="shared" si="21"/>
+        <v>82</v>
+      </c>
+      <c r="M84" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1000000000000001</v>
+      </c>
+      <c r="N84">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="85" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <f t="shared" si="24"/>
+        <v>83</v>
+      </c>
+      <c r="B85">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C85">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D85">
+        <f t="shared" si="14"/>
+        <v>27</v>
+      </c>
+      <c r="E85" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F85">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G85">
+        <f t="shared" si="17"/>
+        <v>83</v>
+      </c>
+      <c r="H85" s="3">
+        <f t="shared" si="18"/>
+        <v>7.407407407407407E-2</v>
+      </c>
+      <c r="J85">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+      <c r="K85">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="L85">
+        <f t="shared" si="21"/>
+        <v>83</v>
+      </c>
+      <c r="M85" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1499999999999999</v>
+      </c>
+      <c r="N85">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="86" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <f t="shared" si="24"/>
+        <v>84</v>
+      </c>
+      <c r="B86">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C86">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D86">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="E86" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F86">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G86">
+        <f t="shared" si="17"/>
+        <v>84</v>
+      </c>
+      <c r="H86" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J86">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="K86">
+        <f t="shared" si="20"/>
+        <v>21</v>
+      </c>
+      <c r="L86">
+        <f t="shared" si="21"/>
+        <v>84</v>
+      </c>
+      <c r="M86" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N86">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="87" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <f t="shared" si="24"/>
+        <v>85</v>
+      </c>
+      <c r="B87">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C87">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D87">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="E87" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F87">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G87">
+        <f t="shared" si="17"/>
+        <v>85</v>
+      </c>
+      <c r="H87" s="3">
+        <f t="shared" si="18"/>
+        <v>3.5714285714285712E-2</v>
+      </c>
+      <c r="J87">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="K87">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="L87">
+        <f t="shared" si="21"/>
+        <v>85</v>
+      </c>
+      <c r="M87" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0476190476190477</v>
+      </c>
+      <c r="N87">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="88" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <f t="shared" si="24"/>
+        <v>86</v>
+      </c>
+      <c r="B88">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C88">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D88">
+        <f t="shared" si="14"/>
+        <v>28</v>
+      </c>
+      <c r="E88" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F88">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G88">
+        <f t="shared" si="17"/>
+        <v>86</v>
+      </c>
+      <c r="H88" s="3">
+        <f t="shared" si="18"/>
+        <v>7.1428571428571425E-2</v>
+      </c>
+      <c r="J88">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="K88">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="L88">
+        <f t="shared" si="21"/>
+        <v>86</v>
+      </c>
+      <c r="M88" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0952380952380953</v>
+      </c>
+      <c r="N88">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <f t="shared" si="24"/>
+        <v>87</v>
+      </c>
+      <c r="B89">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C89">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D89">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="E89" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F89">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G89">
+        <f t="shared" si="17"/>
+        <v>87</v>
+      </c>
+      <c r="H89" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J89">
+        <f t="shared" si="19"/>
+        <v>21</v>
+      </c>
+      <c r="K89">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="L89">
+        <f t="shared" si="21"/>
+        <v>87</v>
+      </c>
+      <c r="M89" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1428571428571428</v>
+      </c>
+      <c r="N89">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <f t="shared" si="24"/>
+        <v>88</v>
+      </c>
+      <c r="B90">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C90">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D90">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="E90" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F90">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G90">
+        <f t="shared" si="17"/>
+        <v>88</v>
+      </c>
+      <c r="H90" s="3">
+        <f t="shared" si="18"/>
+        <v>3.4482758620689655E-2</v>
+      </c>
+      <c r="J90">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="K90">
+        <f t="shared" si="20"/>
+        <v>22</v>
+      </c>
+      <c r="L90">
+        <f t="shared" si="21"/>
+        <v>88</v>
+      </c>
+      <c r="M90" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N90">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="91" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <f t="shared" si="24"/>
+        <v>89</v>
+      </c>
+      <c r="B91">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C91">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D91">
+        <f t="shared" si="14"/>
+        <v>29</v>
+      </c>
+      <c r="E91" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F91">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G91">
+        <f t="shared" si="17"/>
+        <v>89</v>
+      </c>
+      <c r="H91" s="3">
+        <f t="shared" si="18"/>
+        <v>6.8965517241379309E-2</v>
+      </c>
+      <c r="J91">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="K91">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="L91">
+        <f t="shared" si="21"/>
+        <v>89</v>
+      </c>
+      <c r="M91" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0454545454545454</v>
+      </c>
+      <c r="N91">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="92" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A92">
+        <f t="shared" si="24"/>
+        <v>90</v>
+      </c>
+      <c r="B92">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C92">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D92">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="E92" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F92">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G92">
+        <f t="shared" si="17"/>
+        <v>90</v>
+      </c>
+      <c r="H92" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J92">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="K92">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="L92">
+        <f t="shared" si="21"/>
+        <v>90</v>
+      </c>
+      <c r="M92" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0909090909090908</v>
+      </c>
+      <c r="N92">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="93" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A93">
+        <f t="shared" si="24"/>
+        <v>91</v>
+      </c>
+      <c r="B93">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C93">
+        <f t="shared" si="13"/>
+        <v>3</v>
+      </c>
+      <c r="D93">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="E93" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F93">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G93">
+        <f t="shared" si="17"/>
+        <v>91</v>
+      </c>
+      <c r="H93" s="3">
+        <f t="shared" si="18"/>
+        <v>3.3333333333333333E-2</v>
+      </c>
+      <c r="J93">
+        <f t="shared" si="19"/>
+        <v>22</v>
+      </c>
+      <c r="K93">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="L93">
+        <f t="shared" si="21"/>
+        <v>91</v>
+      </c>
+      <c r="M93" s="3">
+        <f t="shared" si="22"/>
+        <v>1.1363636363636365</v>
+      </c>
+      <c r="N93">
+        <f t="shared" si="23"/>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="94" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <f t="shared" si="24"/>
+        <v>92</v>
+      </c>
+      <c r="B94">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C94">
+        <f t="shared" si="13"/>
+        <v>0</v>
+      </c>
+      <c r="D94">
+        <f t="shared" si="14"/>
+        <v>30</v>
+      </c>
+      <c r="E94" s="8">
+        <f t="shared" si="15"/>
+        <v>2</v>
+      </c>
+      <c r="F94">
+        <f t="shared" si="16"/>
+        <v>2</v>
+      </c>
+      <c r="G94">
+        <f t="shared" si="17"/>
+        <v>92</v>
+      </c>
+      <c r="H94" s="3">
+        <f t="shared" si="18"/>
+        <v>6.6666666666666666E-2</v>
+      </c>
+      <c r="J94">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="K94">
+        <f t="shared" si="20"/>
+        <v>23</v>
+      </c>
+      <c r="L94">
+        <f t="shared" si="21"/>
+        <v>92</v>
+      </c>
+      <c r="M94" s="3">
+        <f t="shared" si="22"/>
+        <v>1</v>
+      </c>
+      <c r="N94">
+        <f t="shared" si="23"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="95" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A95">
+        <f t="shared" si="24"/>
+        <v>93</v>
+      </c>
+      <c r="B95">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C95">
+        <f t="shared" si="13"/>
+        <v>1</v>
+      </c>
+      <c r="D95">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="E95" s="8">
+        <f t="shared" si="15"/>
+        <v>0</v>
+      </c>
+      <c r="F95">
+        <f t="shared" si="16"/>
+        <v>0</v>
+      </c>
+      <c r="G95">
+        <f t="shared" si="17"/>
+        <v>93</v>
+      </c>
+      <c r="H95" s="3">
+        <f t="shared" si="18"/>
+        <v>0</v>
+      </c>
+      <c r="J95">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="K95">
+        <f t="shared" si="20"/>
+        <v>24</v>
+      </c>
+      <c r="L95">
+        <f t="shared" si="21"/>
+        <v>93</v>
+      </c>
+      <c r="M95" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0434782608695652</v>
+      </c>
+      <c r="N95">
+        <f t="shared" si="23"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="96" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A96">
+        <f t="shared" si="24"/>
+        <v>94</v>
+      </c>
+      <c r="B96">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C96">
+        <f t="shared" si="13"/>
+        <v>2</v>
+      </c>
+      <c r="D96">
+        <f t="shared" si="14"/>
+        <v>31</v>
+      </c>
+      <c r="E96" s="8">
+        <f t="shared" si="15"/>
+        <v>1</v>
+      </c>
+      <c r="F96">
+        <f t="shared" si="16"/>
+        <v>1</v>
+      </c>
+      <c r="G96">
+        <f t="shared" si="17"/>
+        <v>94</v>
+      </c>
+      <c r="H96" s="3">
+        <f t="shared" si="18"/>
+        <v>3.2258064516129031E-2</v>
+      </c>
+      <c r="J96">
+        <f t="shared" si="19"/>
+        <v>23</v>
+      </c>
+      <c r="K96">
+        <f t="shared" si="20"/>
+        <v>25</v>
+      </c>
+      <c r="L96">
+        <f t="shared" si="21"/>
+        <v>94</v>
+      </c>
+      <c r="M96" s="3">
+        <f t="shared" si="22"/>
+        <v>1.0869565217391304</v>
+      </c>
+      <c r="N96">
+        <f t="shared" si="23"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="97" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A97">
+        <f t="shared" si="24"/>
+        <v>95</v>
+      </c>
+      <c r="B97">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C97">
+        <f t="shared" ref="C97:C100" si="26">MOD(A97,B97)</f>
+        <v>3</v>
+      </c>
+      <c r="D97">
+        <f t="shared" ref="D97:D100" si="27">INT(A97/(B97-1))</f>
+        <v>31</v>
+      </c>
+      <c r="E97" s="8">
+        <f t="shared" ref="E97:E100" si="28">A97-(B97-1)*D97</f>
+        <v>2</v>
+      </c>
+      <c r="F97">
+        <f t="shared" ref="F97:F100" si="29">MOD(A97,B97-1)</f>
+        <v>2</v>
+      </c>
+      <c r="G97">
+        <f t="shared" ref="G97:G100" si="30">D97*(B97-1)+E97</f>
+        <v>95</v>
+      </c>
+      <c r="H97" s="3">
+        <f t="shared" ref="H97:H100" si="31">E97/D97</f>
+        <v>6.4516129032258063E-2</v>
+      </c>
+      <c r="J97">
+        <f t="shared" ref="J97:J100" si="32">INT(A97/B97)</f>
+        <v>23</v>
+      </c>
+      <c r="K97">
+        <f t="shared" ref="K97:K100" si="33">A97-(B97-1)*J97</f>
+        <v>26</v>
+      </c>
+      <c r="L97">
+        <f t="shared" ref="L97:L100" si="34">(B97-1)*J97+K97</f>
+        <v>95</v>
+      </c>
+      <c r="M97" s="3">
+        <f t="shared" ref="M97:M100" si="35">K97/J97</f>
+        <v>1.1304347826086956</v>
+      </c>
+      <c r="N97">
+        <f t="shared" ref="N97:N100" si="36">K97-J97</f>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="98" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A98">
+        <f t="shared" si="24"/>
+        <v>96</v>
+      </c>
+      <c r="B98">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C98">
+        <f t="shared" si="26"/>
+        <v>0</v>
+      </c>
+      <c r="D98">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="E98" s="8">
+        <f t="shared" si="28"/>
+        <v>0</v>
+      </c>
+      <c r="F98">
+        <f t="shared" si="29"/>
+        <v>0</v>
+      </c>
+      <c r="G98">
+        <f t="shared" si="30"/>
+        <v>96</v>
+      </c>
+      <c r="H98" s="3">
+        <f t="shared" si="31"/>
+        <v>0</v>
+      </c>
+      <c r="J98">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
+      <c r="K98">
+        <f t="shared" si="33"/>
+        <v>24</v>
+      </c>
+      <c r="L98">
+        <f t="shared" si="34"/>
+        <v>96</v>
+      </c>
+      <c r="M98" s="3">
+        <f t="shared" si="35"/>
+        <v>1</v>
+      </c>
+      <c r="N98">
+        <f t="shared" si="36"/>
+        <v>0</v>
+      </c>
+    </row>
+    <row r="99" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A99">
+        <f t="shared" si="24"/>
+        <v>97</v>
+      </c>
+      <c r="B99">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C99">
+        <f t="shared" si="26"/>
+        <v>1</v>
+      </c>
+      <c r="D99">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="E99" s="8">
+        <f t="shared" si="28"/>
+        <v>1</v>
+      </c>
+      <c r="F99">
+        <f t="shared" si="29"/>
+        <v>1</v>
+      </c>
+      <c r="G99">
+        <f t="shared" si="30"/>
+        <v>97</v>
+      </c>
+      <c r="H99" s="3">
+        <f t="shared" si="31"/>
+        <v>3.125E-2</v>
+      </c>
+      <c r="J99">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
+      <c r="K99">
+        <f t="shared" si="33"/>
+        <v>25</v>
+      </c>
+      <c r="L99">
+        <f t="shared" si="34"/>
+        <v>97</v>
+      </c>
+      <c r="M99" s="3">
+        <f t="shared" si="35"/>
+        <v>1.0416666666666667</v>
+      </c>
+      <c r="N99">
+        <f t="shared" si="36"/>
+        <v>1</v>
+      </c>
+    </row>
+    <row r="100" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A100">
+        <f t="shared" si="24"/>
+        <v>98</v>
+      </c>
+      <c r="B100">
+        <f t="shared" si="25"/>
+        <v>4</v>
+      </c>
+      <c r="C100">
+        <f t="shared" si="26"/>
+        <v>2</v>
+      </c>
+      <c r="D100">
+        <f t="shared" si="27"/>
+        <v>32</v>
+      </c>
+      <c r="E100" s="8">
+        <f t="shared" si="28"/>
+        <v>2</v>
+      </c>
+      <c r="F100">
+        <f t="shared" si="29"/>
+        <v>2</v>
+      </c>
+      <c r="G100">
+        <f t="shared" si="30"/>
+        <v>98</v>
+      </c>
+      <c r="H100" s="3">
+        <f t="shared" si="31"/>
+        <v>6.25E-2</v>
+      </c>
+      <c r="J100">
+        <f t="shared" si="32"/>
+        <v>24</v>
+      </c>
+      <c r="K100">
+        <f t="shared" si="33"/>
+        <v>26</v>
+      </c>
+      <c r="L100">
+        <f t="shared" si="34"/>
+        <v>98</v>
+      </c>
+      <c r="M100" s="3">
+        <f t="shared" si="35"/>
+        <v>1.0833333333333333</v>
+      </c>
+      <c r="N100">
+        <f t="shared" si="36"/>
+        <v>2</v>
+      </c>
+    </row>
+    <row r="101" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="E101" s="8"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <legacyDrawing r:id="rId1"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
 </worksheet>
 </file>